--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuya vivienda tiene &lt;=2 habitaciones</t>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>20,83%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 25,44</t>
+          <t>6,0; 29,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 26,25</t>
+          <t>4,29; 25,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 27,97</t>
+          <t>4,43; 27,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 34,13</t>
+          <t>6,58; 35,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 31,98</t>
+          <t>14,56; 38,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,19; 30,66</t>
+          <t>16,8; 41,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 26,82</t>
+          <t>15,05; 40,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,66; 27,44</t>
+          <t>11,62; 38,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,71; 27,33</t>
+          <t>12,55; 30,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 30,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,2; 30,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 32,43</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,17; 28,29</t>
+          <t>9,12; 32,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 24,26</t>
+          <t>6,41; 16,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,09; 25,44</t>
+          <t>6,02; 15,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 27,72</t>
+          <t>6,28; 17,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 28,07</t>
+          <t>12,6; 23,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 27,71</t>
+          <t>11,88; 23,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 25,55</t>
+          <t>13,64; 25,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 24,22</t>
+          <t>12,9; 25,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,96; 23,85</t>
+          <t>12,35; 26,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,25; 17,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,59; 18,46</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 18,72</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 22,88</t>
+          <t>12,09; 29,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 25,8</t>
+          <t>12,77; 30,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 24,13</t>
+          <t>12,07; 27,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 23,64</t>
+          <t>12,46; 30,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,48; 25,9</t>
+          <t>13,37; 25,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,95</t>
+          <t>14,72; 27,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 21,51</t>
+          <t>13,82; 26,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 23,84</t>
+          <t>7,51; 17,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 22,54</t>
+          <t>13,74; 24,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,48; 26,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 24,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 20,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 24,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 22,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 22,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,13; 25,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 19,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,88; 17,67</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 20,59</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 22,59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 24,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 24,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 21,43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 22,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 20,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 19,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 19,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,75%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20885</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14182</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16642</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36137</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35634</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31223</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32200</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49690</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>56519</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45404</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48842</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>85827</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7732; 38274</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4521; 27077</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5052; 31847</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11693; 63433</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20743; 55539</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19407; 47852</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18418; 49899</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24869; 82549</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34061; 82601</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27647; 66609</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28849; 72649</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45331; 126989</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68407</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39140</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38165</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53512</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>80198</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65797</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71206</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87988</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>148606</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>104937</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109370</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>141501</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38935; 140280</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24112; 61580</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24063; 62849</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32043; 87215</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58542; 108359</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45262; 88233</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51187; 96811</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63413; 124950</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>110096; 236138</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>77646; 133624</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>82078; 143044</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>102972; 187513</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>62107</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>54772</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50736</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78022</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>70488</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>63517</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47000</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>140128</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>125260</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>114254</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>115209</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40248; 99577</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35540; 84521</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33244; 76032</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43365; 105087</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57256; 109410</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50735; 93681</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45262; 87628</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29868; 70395</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>104600; 183897</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>96446; 162507</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>86333; 146729</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82724; 154034</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>151400</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>108094</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>105543</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>157859</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>193854</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>166923</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>184678</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>345253</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>275602</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>272466</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>342537</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>107809; 222416</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>80515; 147458</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>77990; 139431</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>113214; 213221</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>152305; 233896</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>135436; 202871</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>136346; 205894</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>142372; 236412</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>288260; 425339</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>228129; 325447</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>225374; 322446</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>278214; 412553</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
